--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.235010897697086</v>
+        <v>0.3270775788793804</v>
       </c>
       <c r="D2">
-        <v>0.8142289324025569</v>
+        <v>0.7467009164709912</v>
       </c>
       <c r="E2">
         <v>0.6718769066646587</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.8557254698215007</v>
+        <v>0.9522302400725522</v>
       </c>
       <c r="D3">
-        <v>0.3922717473997424</v>
+        <v>0.3513258352377588</v>
       </c>
       <c r="E3">
         <v>0.6718769066646587</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.158854595033504</v>
+        <v>1.191219080787047</v>
       </c>
       <c r="D4">
-        <v>0.2466802506118493</v>
+        <v>0.2462612393659342</v>
       </c>
       <c r="E4">
         <v>0.6718769066646587</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.01520874939943946</v>
+        <v>0.01470612615852289</v>
       </c>
       <c r="D5">
-        <v>0.9878674483861578</v>
+        <v>0.9883991846534199</v>
       </c>
       <c r="E5">
         <v>0.6718769066646587</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5325121119967828</v>
+        <v>0.4923446582549433</v>
       </c>
       <c r="D6">
-        <v>0.5944418182282742</v>
+        <v>0.627353194577541</v>
       </c>
       <c r="E6">
         <v>0.6645015113273921</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.6314540769442164</v>
+        <v>0.6837867455663227</v>
       </c>
       <c r="D7">
-        <v>0.5278296232471935</v>
+        <v>0.5012492495519583</v>
       </c>
       <c r="E7">
         <v>0.6645015113273921</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.2243752366428635</v>
+        <v>-0.2375603988605006</v>
       </c>
       <c r="D8">
-        <v>0.8224926382638185</v>
+        <v>0.8144204679642959</v>
       </c>
       <c r="E8">
         <v>0.6645015113273921</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1549718188345093</v>
+        <v>0.1589879954388519</v>
       </c>
       <c r="D9">
-        <v>0.876862161099218</v>
+        <v>0.8751288359282787</v>
       </c>
       <c r="E9">
         <v>0.6479913960905648</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.7215774223916596</v>
+        <v>-0.6513047116773216</v>
       </c>
       <c r="D10">
-        <v>0.4706547940907508</v>
+        <v>0.5215956652492175</v>
       </c>
       <c r="E10">
         <v>0.6479913960905648</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.866187391947546</v>
+        <v>-0.8123150088515994</v>
       </c>
       <c r="D11">
-        <v>0.3865111632597491</v>
+        <v>0.4253139708228204</v>
       </c>
       <c r="E11">
         <v>0.6432208862448453</v>
